--- a/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5401-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>9368</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4567</v>
+        <v>4696</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15793</v>
+        <v>15939</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.08147127419682391</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03971365742218096</v>
+        <v>0.04083761974494338</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1373474633122096</v>
+        <v>0.138609717011715</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -765,19 +765,19 @@
         <v>12573</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6836</v>
+        <v>6622</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>21345</v>
+        <v>21033</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08407957909664898</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04571821148998096</v>
+        <v>0.04428170219976081</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1427409677469823</v>
+        <v>0.1406547664228585</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>22</v>
@@ -786,19 +786,19 @@
         <v>21941</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14038</v>
+        <v>14951</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>31181</v>
+        <v>34148</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.08294574706875789</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05306850984120542</v>
+        <v>0.0565200958150448</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1178761397945563</v>
+        <v>0.1290928226904151</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>22616</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14517</v>
+        <v>14473</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31602</v>
+        <v>31388</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1966806383229068</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1262491895946331</v>
+        <v>0.1258635674019118</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2748286034105508</v>
+        <v>0.272962334303414</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>29</v>
@@ -836,19 +836,19 @@
         <v>30126</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>20613</v>
+        <v>22007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40720</v>
+        <v>41495</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2014630098584458</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1378504093388812</v>
+        <v>0.1471682232558804</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2723103001796129</v>
+        <v>0.2774946059296367</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -857,19 +857,19 @@
         <v>52742</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41233</v>
+        <v>40890</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67642</v>
+        <v>66881</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1993841094903821</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1558765988494915</v>
+        <v>0.1545780368031688</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.255710534259088</v>
+        <v>0.2528359360208714</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>83005</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>72959</v>
+        <v>73157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>92443</v>
+        <v>92173</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7218480874802693</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6344889132773917</v>
+        <v>0.6362098161581164</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8039266682397848</v>
+        <v>0.8015778356533841</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>110</v>
@@ -907,19 +907,19 @@
         <v>106836</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>95659</v>
+        <v>94935</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>118327</v>
+        <v>117299</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7144574110449052</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6397091364052366</v>
+        <v>0.6348704216617397</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7912984374001535</v>
+        <v>0.784427638959719</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>195</v>
@@ -928,19 +928,19 @@
         <v>189841</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>175324</v>
+        <v>173112</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>204385</v>
+        <v>203097</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.71767014344086</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6627902828631631</v>
+        <v>0.6544272709522675</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.772651611939891</v>
+        <v>0.7677840333284424</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>10822</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5940</v>
+        <v>5670</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>18248</v>
+        <v>18113</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07417847360991676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04071838492522832</v>
+        <v>0.0388681218095299</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1250810480773651</v>
+        <v>0.1241579451911288</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -1053,19 +1053,19 @@
         <v>10418</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5200</v>
+        <v>5356</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18666</v>
+        <v>18770</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05702621165147512</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02846637951852158</v>
+        <v>0.02931724336807237</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1021760551990876</v>
+        <v>0.1027497745855347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -1074,19 +1074,19 @@
         <v>21239</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13141</v>
+        <v>13495</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>32026</v>
+        <v>32523</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06464204813310497</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03999425895969165</v>
+        <v>0.04107133065379773</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09747021523157738</v>
+        <v>0.0989827291783929</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>28753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>20596</v>
+        <v>19976</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>39692</v>
+        <v>38890</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1970858116453987</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1411748742023684</v>
+        <v>0.1369268662426954</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.272067906773834</v>
+        <v>0.2665692453970798</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -1124,19 +1124,19 @@
         <v>50117</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>38111</v>
+        <v>38363</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>63533</v>
+        <v>61815</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2743440634040623</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2086235293748824</v>
+        <v>0.2100027557652196</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3477819340298614</v>
+        <v>0.3383800242713255</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>73</v>
@@ -1145,19 +1145,19 @@
         <v>78870</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>63561</v>
+        <v>64435</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>95163</v>
+        <v>95344</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2400403538597363</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1934495917673395</v>
+        <v>0.1961081826868022</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2896299439540457</v>
+        <v>0.2901815442265178</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>106315</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>94600</v>
+        <v>95029</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>115543</v>
+        <v>116763</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7287357147446846</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6484353840637656</v>
+        <v>0.6513778412018191</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.791990988970906</v>
+        <v>0.800355667700002</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1195,19 +1195,19 @@
         <v>122145</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>107673</v>
+        <v>109536</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>135066</v>
+        <v>134705</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6686297249444626</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5894096439933247</v>
+        <v>0.5996049080748429</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7393598799704572</v>
+        <v>0.7373803598693162</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>222</v>
@@ -1216,19 +1216,19 @@
         <v>228459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>211136</v>
+        <v>210228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>244720</v>
+        <v>244307</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6953175980071588</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6425935946772997</v>
+        <v>0.6398317410395348</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7448081606897352</v>
+        <v>0.7435494835246271</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>2918</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>938</v>
+        <v>944</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7754</v>
+        <v>8257</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02795757266578468</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.008991325322715894</v>
+        <v>0.009040111392413437</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.07429691837890608</v>
+        <v>0.07911403580183532</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>6</v>
@@ -1341,19 +1341,19 @@
         <v>6545</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>2897</v>
+        <v>2534</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13043</v>
+        <v>12820</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.04817530086325492</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0213243525248315</v>
+        <v>0.01865650619992949</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.096009862844921</v>
+        <v>0.09436540147745207</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -1362,19 +1362,19 @@
         <v>9463</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4895</v>
+        <v>4618</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16955</v>
+        <v>16875</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.03939111233141994</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.02037544468296338</v>
+        <v>0.01922282486150391</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.07058009595438494</v>
+        <v>0.07024942321420978</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>15007</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8584</v>
+        <v>8991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>22830</v>
+        <v>24528</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1437818428823494</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08224251716720458</v>
+        <v>0.0861478826159882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2187341504689123</v>
+        <v>0.2350031780703956</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>30</v>
@@ -1412,19 +1412,19 @@
         <v>30830</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>21231</v>
+        <v>22087</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>41403</v>
+        <v>42127</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2269402910104495</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1562807004822715</v>
+        <v>0.1625822295747617</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3047723611362774</v>
+        <v>0.3101016481258713</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>45</v>
@@ -1433,19 +1433,19 @@
         <v>45836</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>33484</v>
+        <v>34003</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>59082</v>
+        <v>59382</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.190809649662553</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1393885544873266</v>
+        <v>0.1415492198421132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2459485847774759</v>
+        <v>0.247197841168818</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>86446</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>77388</v>
+        <v>77442</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>92903</v>
+        <v>93264</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8282605844518659</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7414722856965816</v>
+        <v>0.7419878924710593</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8901255629698134</v>
+        <v>0.893581619916694</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>104</v>
@@ -1483,19 +1483,19 @@
         <v>98476</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>87568</v>
+        <v>86748</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108429</v>
+        <v>107897</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7248844081262956</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6445903859204042</v>
+        <v>0.6385548111198944</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.798149366737689</v>
+        <v>0.794239019718641</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>188</v>
@@ -1504,19 +1504,19 @@
         <v>184922</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>171638</v>
+        <v>170721</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>198932</v>
+        <v>197477</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.769799238006027</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7145014779261392</v>
+        <v>0.7106842440020391</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8281220657282257</v>
+        <v>0.8220644315400263</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>6697</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>2535</v>
+        <v>3270</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11871</v>
+        <v>12720</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04880909069734692</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0184711032179543</v>
+        <v>0.02383343988916551</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08651327716971617</v>
+        <v>0.09269750845623211</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>18</v>
@@ -1629,19 +1629,19 @@
         <v>19425</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>12102</v>
+        <v>11917</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>30151</v>
+        <v>29127</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09304239918582832</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05796380665347343</v>
+        <v>0.0570811829452136</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1444157085529665</v>
+        <v>0.1395101181054478</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1650,19 +1650,19 @@
         <v>26123</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>18386</v>
+        <v>16933</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>38111</v>
+        <v>36464</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.07549999857050312</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05313905309502804</v>
+        <v>0.04893964773742711</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1101477657751173</v>
+        <v>0.105387870882042</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>17847</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10947</v>
+        <v>11287</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>26199</v>
+        <v>26572</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1300668836267155</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07978084821263672</v>
+        <v>0.08225916515225178</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1909347945076124</v>
+        <v>0.1936472866090142</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -1700,19 +1700,19 @@
         <v>46879</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>35924</v>
+        <v>34737</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60475</v>
+        <v>58207</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2245411477763937</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1720688309074245</v>
+        <v>0.1663825352551148</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2896619386270684</v>
+        <v>0.2788015313525479</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>63</v>
@@ -1721,19 +1721,19 @@
         <v>64727</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>50706</v>
+        <v>52045</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>79609</v>
+        <v>81002</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1870737855965269</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1465499599879639</v>
+        <v>0.1504204575649884</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2300865908123646</v>
+        <v>0.234112871361672</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>112672</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>103960</v>
+        <v>103551</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>120448</v>
+        <v>120771</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8211240256759376</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.757631428416047</v>
+        <v>0.7546534342673423</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.877789588455902</v>
+        <v>0.8801453475379414</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>139</v>
@@ -1771,19 +1771,19 @@
         <v>142473</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>127653</v>
+        <v>129349</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>155860</v>
+        <v>156008</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.682416453037778</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6114299566659273</v>
+        <v>0.6195549158278839</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.74653828366854</v>
+        <v>0.7472467647568058</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>267</v>
@@ -1792,19 +1792,19 @@
         <v>255146</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>238719</v>
+        <v>237848</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>271107</v>
+        <v>270643</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.73742621583297</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6899502120370106</v>
+        <v>0.687432772486208</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7835571231640173</v>
+        <v>0.7822168694277813</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>29806</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>21270</v>
+        <v>21688</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>41682</v>
+        <v>41149</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05931846602711142</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04233154225736865</v>
+        <v>0.04316393672243903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08295476767335691</v>
+        <v>0.08189369985587937</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>46</v>
@@ -1917,19 +1917,19 @@
         <v>48960</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>35819</v>
+        <v>37059</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>65019</v>
+        <v>65040</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.07233614551362993</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05292074183494461</v>
+        <v>0.05475229406411029</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.09606210838512809</v>
+        <v>0.09609313802415333</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -1938,19 +1938,19 @@
         <v>78766</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>62499</v>
+        <v>62533</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>96668</v>
+        <v>96481</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06678972219320285</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05299672259351646</v>
+        <v>0.0530254378908319</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0819702105084536</v>
+        <v>0.081811293491312</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>84223</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>68586</v>
+        <v>69075</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>102466</v>
+        <v>103252</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1676188681038333</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1364988289842348</v>
+        <v>0.1374718465026886</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2039253649156608</v>
+        <v>0.2054901272644824</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>146</v>
@@ -1988,19 +1988,19 @@
         <v>157952</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>134168</v>
+        <v>136621</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>179763</v>
+        <v>180706</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2333658042536964</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1982270882978441</v>
+        <v>0.201850240510784</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.265590785662426</v>
+        <v>0.266983415648398</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>234</v>
@@ -2009,19 +2009,19 @@
         <v>242175</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>215696</v>
+        <v>216785</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>271637</v>
+        <v>270684</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2053531050406083</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1829007391368441</v>
+        <v>0.1838241909055998</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2303355969406718</v>
+        <v>0.2295281752619562</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>388438</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>368769</v>
+        <v>367864</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>406832</v>
+        <v>405105</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7730626658690553</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7339173579621318</v>
+        <v>0.7321171344843025</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8096709052238545</v>
+        <v>0.8062339847428373</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>469</v>
@@ -2059,19 +2059,19 @@
         <v>469930</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>445142</v>
+        <v>444283</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>495122</v>
+        <v>493120</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6942980502326737</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6576742286959046</v>
+        <v>0.6564059367411272</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7315172164839109</v>
+        <v>0.7285604723743735</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>872</v>
@@ -2080,19 +2080,19 @@
         <v>858368</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>826418</v>
+        <v>829621</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>889753</v>
+        <v>888570</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7278571727661889</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.700765285243385</v>
+        <v>0.7034815820812487</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7544702547005391</v>
+        <v>0.75346700022295</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>6300</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2202</v>
+        <v>2219</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13501</v>
+        <v>12651</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04514504836058484</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01577638874003847</v>
+        <v>0.01590016626660124</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09674564517081836</v>
+        <v>0.09065615499571535</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2445,19 +2445,19 @@
         <v>21397</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13835</v>
+        <v>13517</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31278</v>
+        <v>31364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.128291141109618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08294990939031496</v>
+        <v>0.08104155005008577</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1875317637738985</v>
+        <v>0.1880473970688931</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>26</v>
@@ -2466,19 +2466,19 @@
         <v>27697</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>17723</v>
+        <v>19062</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>38785</v>
+        <v>40164</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09041477918882354</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05785530867744711</v>
+        <v>0.06222551706762573</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1266108912165619</v>
+        <v>0.1311125715914111</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>24801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>15943</v>
+        <v>16634</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34902</v>
+        <v>35790</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1777222659075685</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1142489386027796</v>
+        <v>0.1192032904824113</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2501117278906753</v>
+        <v>0.2564709917103153</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>28</v>
@@ -2516,19 +2516,19 @@
         <v>29813</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>19889</v>
+        <v>21466</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>40933</v>
+        <v>41307</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1787516501945761</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1192458195487177</v>
+        <v>0.128704496842178</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2454206804110658</v>
+        <v>0.2476630444007387</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>51</v>
@@ -2537,19 +2537,19 @@
         <v>54614</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41296</v>
+        <v>41268</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>67707</v>
+        <v>69205</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1782827245900025</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1348086530691381</v>
+        <v>0.1347154986603863</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.221022071328873</v>
+        <v>0.2259143853090471</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>108447</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>97253</v>
+        <v>96955</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>118720</v>
+        <v>117628</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7771326857318466</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6969168140520211</v>
+        <v>0.6947833274802326</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8507536714830681</v>
+        <v>0.8429248032440634</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>109</v>
@@ -2587,19 +2587,19 @@
         <v>115576</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>101876</v>
+        <v>103904</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>127026</v>
+        <v>126856</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6929572086958059</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6108156224579707</v>
+        <v>0.6229758086109808</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7616085000368825</v>
+        <v>0.7605888894103202</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>209</v>
@@ -2608,19 +2608,19 @@
         <v>224023</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>208424</v>
+        <v>208336</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>240239</v>
+        <v>240587</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.731302496221174</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.6803812620971675</v>
+        <v>0.680094361917861</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7842383001350766</v>
+        <v>0.7853735922193745</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>17335</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10417</v>
+        <v>10446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>27005</v>
+        <v>26917</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1119248196157776</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06726046634077719</v>
+        <v>0.0674438772619351</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1743628569134481</v>
+        <v>0.1737970934691195</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>27</v>
@@ -2733,19 +2733,19 @@
         <v>30767</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>21239</v>
+        <v>20363</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43041</v>
+        <v>41475</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1607306592380363</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1109561944909719</v>
+        <v>0.1063801989526677</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2248521745779414</v>
+        <v>0.2166701118341723</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -2754,19 +2754,19 @@
         <v>48102</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35606</v>
+        <v>36829</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63019</v>
+        <v>61843</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1389027736526434</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1028185812577663</v>
+        <v>0.1063518968050507</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1819805170078806</v>
+        <v>0.1785820990166708</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>26290</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17673</v>
+        <v>16298</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>37575</v>
+        <v>38042</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1697493489279406</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1141117818530663</v>
+        <v>0.1052341776197813</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2426132842452478</v>
+        <v>0.2456248045514748</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>44</v>
@@ -2804,19 +2804,19 @@
         <v>48013</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>35194</v>
+        <v>35876</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>60097</v>
+        <v>60426</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2508262760152145</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1838575309721227</v>
+        <v>0.1874181180136254</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3139514595878364</v>
+        <v>0.3156704594079088</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>66</v>
@@ -2825,19 +2825,19 @@
         <v>74304</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>59973</v>
+        <v>61470</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>92136</v>
+        <v>91172</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2145654944822369</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1731832056250427</v>
+        <v>0.1775068677128087</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2660587341035234</v>
+        <v>0.2632771134747663</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>111253</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>99413</v>
+        <v>98867</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>121776</v>
+        <v>122856</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7183258314562818</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6418790515134406</v>
+        <v>0.6383553327187549</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7862686015685735</v>
+        <v>0.7932407459293022</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>106</v>
@@ -2875,19 +2875,19 @@
         <v>112640</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>98108</v>
+        <v>99817</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>126478</v>
+        <v>125268</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5884430647467492</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.512528064792327</v>
+        <v>0.5214561822379897</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6607331273737385</v>
+        <v>0.6544131881914912</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>206</v>
@@ -2896,19 +2896,19 @@
         <v>223893</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>205400</v>
+        <v>205364</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>242551</v>
+        <v>240566</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.6465317318651197</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5931301596266714</v>
+        <v>0.5930267486285118</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7004125447906244</v>
+        <v>0.6946785228215939</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>12927</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7208</v>
+        <v>6398</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>23068</v>
+        <v>22875</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1247816505846666</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06957285981494853</v>
+        <v>0.0617608058494821</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2226660701915626</v>
+        <v>0.2208017980382534</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>23</v>
@@ -3021,19 +3021,19 @@
         <v>25697</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>17631</v>
+        <v>16637</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36721</v>
+        <v>35966</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1822226963351942</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.125022878759126</v>
+        <v>0.1179802077792695</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2603974258498741</v>
+        <v>0.2550403252845905</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>33</v>
@@ -3042,19 +3042,19 @@
         <v>38624</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>27405</v>
+        <v>27750</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>53191</v>
+        <v>51269</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1578957175613745</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1120302460039797</v>
+        <v>0.1134430493493545</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2174444225773396</v>
+        <v>0.2095891863510411</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>15013</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8327</v>
+        <v>8361</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24588</v>
+        <v>24454</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1449184814611556</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.08038188830082128</v>
+        <v>0.08070148968166561</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.237338580939003</v>
+        <v>0.2360436634174692</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>20</v>
@@ -3092,19 +3092,19 @@
         <v>21482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>14124</v>
+        <v>13354</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>30827</v>
+        <v>31084</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1523347295071931</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1001548562998375</v>
+        <v>0.09469633940244022</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2186044744561913</v>
+        <v>0.2204274728749925</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>33</v>
@@ -3113,19 +3113,19 @@
         <v>36495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>25688</v>
+        <v>25797</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>48332</v>
+        <v>50365</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.149193858611825</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1050129700694219</v>
+        <v>0.1054577250292613</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1975834355607578</v>
+        <v>0.2058924714766351</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>75658</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64006</v>
+        <v>64542</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84741</v>
+        <v>84971</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7302998679541778</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.617833880251878</v>
+        <v>0.6230086031980425</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8179766210487013</v>
+        <v>0.8202012113602812</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>86</v>
@@ -3163,19 +3163,19 @@
         <v>93840</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>81688</v>
+        <v>81974</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>104360</v>
+        <v>105844</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6654425741576127</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5792675660215677</v>
+        <v>0.581299622629692</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7400435725441504</v>
+        <v>0.7505645808175525</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>153</v>
@@ -3184,19 +3184,19 @@
         <v>169498</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>152235</v>
+        <v>154710</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>184006</v>
+        <v>185532</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6929104238268003</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6223396047748645</v>
+        <v>0.6324596918891545</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7522209338856046</v>
+        <v>0.7584607177923528</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>18369</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>11154</v>
+        <v>11218</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27873</v>
+        <v>27998</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1136576578399967</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06901481713517867</v>
+        <v>0.06941343388422862</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1724680248436237</v>
+        <v>0.1732400186640941</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -3309,19 +3309,19 @@
         <v>17746</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>10529</v>
+        <v>10641</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>27255</v>
+        <v>27871</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07280306887346331</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04319432694836154</v>
+        <v>0.04365343171583719</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.111815648417037</v>
+        <v>0.1143431924632747</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>33</v>
@@ -3330,19 +3330,19 @@
         <v>36114</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>25983</v>
+        <v>25055</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>50353</v>
+        <v>49800</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08909130195580028</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06409771904802729</v>
+        <v>0.0618083856324884</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1242162988258607</v>
+        <v>0.1228537822144574</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>17605</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>10668</v>
+        <v>10406</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>28250</v>
+        <v>27959</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1089322913755132</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06600659110377086</v>
+        <v>0.06438902820936522</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1748028527697307</v>
+        <v>0.1730026642980625</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>51</v>
@@ -3380,19 +3380,19 @@
         <v>53502</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>40951</v>
+        <v>41315</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>66797</v>
+        <v>68460</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2194942234433593</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1680057676801746</v>
+        <v>0.1694980068693839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2740400732064251</v>
+        <v>0.2808631319011887</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>66</v>
@@ -3401,19 +3401,19 @@
         <v>71107</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>55118</v>
+        <v>57854</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>88213</v>
+        <v>89492</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1754145113446822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1359726445794951</v>
+        <v>0.1427221888309904</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2176158022835465</v>
+        <v>0.2207698983326662</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>125640</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>114747</v>
+        <v>112274</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>135575</v>
+        <v>135248</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.77741005078449</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7100137180457573</v>
+        <v>0.6947108763089881</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8388891174248453</v>
+        <v>0.8368620717904613</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>164</v>
@@ -3451,19 +3451,19 @@
         <v>172503</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>157456</v>
+        <v>157091</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>186069</v>
+        <v>185674</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7077027076831774</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6459751920507646</v>
+        <v>0.6444739071025016</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7633606458421113</v>
+        <v>0.7617388179578597</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>279</v>
@@ -3472,19 +3472,19 @@
         <v>298142</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>279139</v>
+        <v>278616</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>315470</v>
+        <v>314801</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7354941866995176</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6886155791670366</v>
+        <v>0.6873255107078873</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7782412374537119</v>
+        <v>0.7765896443799032</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>54930</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>41084</v>
+        <v>42349</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>71975</v>
+        <v>72401</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.0981534888294642</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07341173984082779</v>
+        <v>0.07567154546807385</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1286104641242176</v>
+        <v>0.1293721925639718</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>86</v>
@@ -3597,19 +3597,19 @@
         <v>95607</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>77076</v>
+        <v>77879</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>117777</v>
+        <v>114552</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1286810930043152</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1037393910890146</v>
+        <v>0.1048203672243406</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1585213889195453</v>
+        <v>0.1541796475383854</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>135</v>
@@ -3618,19 +3618,19 @@
         <v>150537</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>128967</v>
+        <v>128282</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>176872</v>
+        <v>176251</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1155656161995074</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09900616427448246</v>
+        <v>0.09848030172927436</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1357828004891888</v>
+        <v>0.1353059542743178</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>83709</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>68244</v>
+        <v>66315</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>104482</v>
+        <v>104273</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1495779131260853</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1219434865830812</v>
+        <v>0.1184968755747604</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1866965547753222</v>
+        <v>0.1863219281191746</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>143</v>
@@ -3668,19 +3668,19 @@
         <v>152810</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>129703</v>
+        <v>132960</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>177227</v>
+        <v>177987</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2056734809295901</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1745720028286289</v>
+        <v>0.178956643631412</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2385364833988306</v>
+        <v>0.2395598669249426</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>216</v>
@@ -3689,19 +3689,19 @@
         <v>236520</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>207759</v>
+        <v>207890</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>265386</v>
+        <v>265733</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1815733218026092</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.159494486626437</v>
+        <v>0.1595950095226053</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2037340375554767</v>
+        <v>0.204000066084368</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>420997</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>398432</v>
+        <v>397822</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>441159</v>
+        <v>443466</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7522685980444506</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7119470267056931</v>
+        <v>0.7108565115439353</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7882950058111217</v>
+        <v>0.7924168999789841</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>465</v>
@@ -3739,19 +3739,19 @@
         <v>494558</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>464219</v>
+        <v>467327</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>521106</v>
+        <v>518344</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6656454260660947</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6248111696040231</v>
+        <v>0.6289937898126385</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7013772862082298</v>
+        <v>0.6976599656593261</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>847</v>
@@ -3760,19 +3760,19 @@
         <v>915555</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>876943</v>
+        <v>881057</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>948796</v>
+        <v>948505</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7028610619978835</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6732190854028761</v>
+        <v>0.6763773833606554</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7283798702316111</v>
+        <v>0.7281562228016596</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>16405</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10213</v>
+        <v>10267</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23317</v>
+        <v>24744</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.119979864770509</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07469472882131865</v>
+        <v>0.07508554084920646</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1705300812907284</v>
+        <v>0.1809634138914502</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>12</v>
@@ -4125,19 +4125,19 @@
         <v>14793</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7928</v>
+        <v>7995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24808</v>
+        <v>24027</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08531571450021014</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04572559906627605</v>
+        <v>0.04611153313577169</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1430783370185713</v>
+        <v>0.1385731876137632</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>31</v>
@@ -4146,19 +4146,19 @@
         <v>31198</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21623</v>
+        <v>21418</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>42568</v>
+        <v>43630</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1005991328620405</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0697225596826469</v>
+        <v>0.06906314375125691</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1372594923874399</v>
+        <v>0.1406840592234103</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>11373</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6488</v>
+        <v>6336</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>18831</v>
+        <v>18142</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08317246472969141</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04744781682225032</v>
+        <v>0.04633913679547386</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1377199633840937</v>
+        <v>0.1326774137347552</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -4196,19 +4196,19 @@
         <v>33875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24326</v>
+        <v>23667</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45183</v>
+        <v>44041</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1953651215121224</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1402984994288755</v>
+        <v>0.1364957809181359</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2605836236838243</v>
+        <v>0.25399669442529</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>43</v>
@@ -4217,19 +4217,19 @@
         <v>45247</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>34093</v>
+        <v>33977</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58809</v>
+        <v>60268</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1458993969130595</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1099331244850331</v>
+        <v>0.1095603934680468</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1896315268381089</v>
+        <v>0.1943336214226785</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>108956</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>100216</v>
+        <v>99912</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>117511</v>
+        <v>117833</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.7968476704997995</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.7329244463521759</v>
+        <v>0.7307034939061078</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8594109688088716</v>
+        <v>0.8617706309747231</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>115</v>
@@ -4267,19 +4267,19 @@
         <v>124723</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>112335</v>
+        <v>112067</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>135687</v>
+        <v>137128</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.7193191639876675</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6478684144842474</v>
+        <v>0.6463278683751018</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.7825511168854625</v>
+        <v>0.790859321309386</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>231</v>
@@ -4288,19 +4288,19 @@
         <v>233680</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>218455</v>
+        <v>216777</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>248890</v>
+        <v>248464</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.7535014702249</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.7044106761723006</v>
+        <v>0.6989982972167141</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.8025459239746029</v>
+        <v>0.8011752346440035</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>12113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6905</v>
+        <v>6742</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19412</v>
+        <v>19813</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07343914841996299</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04186631846826486</v>
+        <v>0.04087434958760099</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1176902659423591</v>
+        <v>0.1201194326213785</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>7</v>
@@ -4413,19 +4413,19 @@
         <v>9694</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3920</v>
+        <v>3862</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18327</v>
+        <v>19272</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04423037810274728</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01788426547011706</v>
+        <v>0.01762037284772784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08362442521667175</v>
+        <v>0.08793308343131691</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>21</v>
@@ -4434,19 +4434,19 @@
         <v>21807</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>13752</v>
+        <v>13426</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>33176</v>
+        <v>32778</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.05677312475834619</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03580232964695278</v>
+        <v>0.03495448239723396</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.08637161035819946</v>
+        <v>0.08533549084379236</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>25370</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17491</v>
+        <v>18040</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>35682</v>
+        <v>35910</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1538143585422617</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1060422468442894</v>
+        <v>0.1093715266850189</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2163337170294046</v>
+        <v>0.2177130012130774</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>46</v>
@@ -4484,19 +4484,19 @@
         <v>58008</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>45144</v>
+        <v>43409</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>73998</v>
+        <v>72176</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.264680225495535</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2059858749079562</v>
+        <v>0.198066970760842</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3376408652555675</v>
+        <v>0.3293276314202921</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>74</v>
@@ -4505,19 +4505,19 @@
         <v>83378</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>68697</v>
+        <v>67127</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>102231</v>
+        <v>101417</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2170725218213875</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1788504625532566</v>
+        <v>0.1747618907812422</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2661542923448239</v>
+        <v>0.2640354962686152</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>127458</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>116189</v>
+        <v>116447</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>136532</v>
+        <v>136274</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7727464930377753</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7044268212949881</v>
+        <v>0.7059938406978835</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.827761080521227</v>
+        <v>0.8261957152956112</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -4555,19 +4555,19 @@
         <v>151461</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>134907</v>
+        <v>136572</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>165489</v>
+        <v>166812</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6910893964017176</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6155565348515668</v>
+        <v>0.623152858856167</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7550943913232097</v>
+        <v>0.7611314987975097</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>262</v>
@@ -4576,19 +4576,19 @@
         <v>278919</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>259162</v>
+        <v>258665</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>295621</v>
+        <v>297156</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7261543534202664</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6747183454768865</v>
+        <v>0.6734244785634691</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7696371892805676</v>
+        <v>0.7736334715941652</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>8707</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4099</v>
+        <v>4290</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>15553</v>
+        <v>16200</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07569287720605947</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.0356342569065197</v>
+        <v>0.03729148554731763</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1351990752458565</v>
+        <v>0.1408238156367793</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>9</v>
@@ -4701,19 +4701,19 @@
         <v>11322</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5113</v>
+        <v>5056</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>19917</v>
+        <v>19576</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0793972220378988</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.03585445911002015</v>
+        <v>0.0354541307934264</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1396713609478747</v>
+        <v>0.1372849754767099</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -4722,19 +4722,19 @@
         <v>20029</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>13233</v>
+        <v>12879</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>31658</v>
+        <v>31171</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0777431920990846</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0513638190822736</v>
+        <v>0.04999142954188018</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1228822296951858</v>
+        <v>0.120990323788899</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>12250</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7246</v>
+        <v>7158</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>20189</v>
+        <v>19888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1064851732259139</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06299278238393778</v>
+        <v>0.06222643176019579</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.175499028734377</v>
+        <v>0.1728859200063418</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>24</v>
@@ -4772,19 +4772,19 @@
         <v>30111</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>20769</v>
+        <v>20290</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>42421</v>
+        <v>41026</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2111614591573154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1456486012359408</v>
+        <v>0.1422891622044851</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2974877211953823</v>
+        <v>0.2877090876464445</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>37</v>
@@ -4793,19 +4793,19 @@
         <v>42360</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>30580</v>
+        <v>30440</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>56543</v>
+        <v>55874</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.164422367988947</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1186970875903423</v>
+        <v>0.1181547145056625</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2194740269614344</v>
+        <v>0.216877706614956</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>94078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>85867</v>
+        <v>84877</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>101631</v>
+        <v>101422</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8178219495680267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7464432624601942</v>
+        <v>0.737834748727716</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8834750838493269</v>
+        <v>0.8816652330960575</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>85</v>
@@ -4843,19 +4843,19 @@
         <v>101163</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89389</v>
+        <v>89197</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>112018</v>
+        <v>113322</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7094413188047859</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6268711209522196</v>
+        <v>0.6255191247288068</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7855589830867218</v>
+        <v>0.7947044204795648</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>177</v>
@@ -4864,19 +4864,19 @@
         <v>195242</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>179155</v>
+        <v>180409</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>208907</v>
+        <v>209077</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7578344399119684</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6953947694801029</v>
+        <v>0.700261001480409</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8108782773127285</v>
+        <v>0.811538022169181</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>8656</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4394</v>
+        <v>4008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16214</v>
+        <v>16808</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04957374688998167</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.02516325510785292</v>
+        <v>0.02295037538947519</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09285299990917134</v>
+        <v>0.09625531669907453</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -4989,19 +4989,19 @@
         <v>14297</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>7570</v>
+        <v>7626</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>24852</v>
+        <v>24029</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05888763116346284</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03118034920011327</v>
+        <v>0.0314125384464933</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.102364072132254</v>
+        <v>0.09897479421124177</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -5010,19 +5010,19 @@
         <v>22953</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14375</v>
+        <v>14881</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>33726</v>
+        <v>35541</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05499118527599894</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03443823431677467</v>
+        <v>0.03565222105250037</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08079971966981052</v>
+        <v>0.08514843382336743</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>18350</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>11698</v>
+        <v>12088</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>27476</v>
+        <v>28965</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1050847005732052</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06699337967245063</v>
+        <v>0.06922693648711456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1573465999962121</v>
+        <v>0.1658744840329066</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>46</v>
@@ -5060,19 +5060,19 @@
         <v>61388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47201</v>
+        <v>47008</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>79228</v>
+        <v>77052</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2528533722547201</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1944197307199761</v>
+        <v>0.1936211310884322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3263352344998535</v>
+        <v>0.3173726580816907</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>67</v>
@@ -5081,19 +5081,19 @@
         <v>79738</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>63935</v>
+        <v>63917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>97068</v>
+        <v>97949</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1910346276618973</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1531746397447261</v>
+        <v>0.1531312499543766</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2325529096988688</v>
+        <v>0.2346648399053867</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>147612</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>137189</v>
+        <v>136643</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>156229</v>
+        <v>155731</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.8453415525368131</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7856531112126376</v>
+        <v>0.7825256976869003</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8946907554183139</v>
+        <v>0.8918370912860206</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>141</v>
@@ -5131,19 +5131,19 @@
         <v>167096</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>148073</v>
+        <v>150989</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>182684</v>
+        <v>183126</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.688258996581817</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6099038369833475</v>
+        <v>0.6219140958168189</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7524643542905979</v>
+        <v>0.7542860244993524</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>301</v>
@@ -5152,19 +5152,19 @@
         <v>314709</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>295429</v>
+        <v>293647</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>331702</v>
+        <v>331876</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7539741870621038</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.7077848990156336</v>
+        <v>0.7035135733133324</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.79468525104165</v>
+        <v>0.7951041459955777</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>45882</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>34554</v>
+        <v>34604</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>60055</v>
+        <v>58111</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.07759186349835058</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05843532478887632</v>
+        <v>0.05851911868917877</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1015590074953629</v>
+        <v>0.09827147408490799</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -5277,19 +5277,19 @@
         <v>50105</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>36495</v>
+        <v>34955</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68226</v>
+        <v>66474</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06440822492861693</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04691319378232423</v>
+        <v>0.04493320634590921</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08770226209862651</v>
+        <v>0.08545027688154556</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>90</v>
@@ -5298,19 +5298,19 @@
         <v>95987</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>76112</v>
+        <v>77294</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>115159</v>
+        <v>115569</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.07010170922655461</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05558627333749796</v>
+        <v>0.05644918785304372</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.08410310231503758</v>
+        <v>0.0844022402710557</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>67342</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>54812</v>
+        <v>54213</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>84227</v>
+        <v>82250</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1138826360385054</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09269363809526537</v>
+        <v>0.09167925221786186</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1424363291012773</v>
+        <v>0.1390929004959765</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>146</v>
@@ -5348,19 +5348,19 @@
         <v>183381</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>158358</v>
+        <v>158633</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>210250</v>
+        <v>211814</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2357297206937449</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2035624739112733</v>
+        <v>0.2039160049588874</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2702676662507321</v>
+        <v>0.2722790938214731</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>221</v>
@@ -5369,19 +5369,19 @@
         <v>250723</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>220509</v>
+        <v>219475</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>280535</v>
+        <v>279484</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1831088558570275</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1610423623284679</v>
+        <v>0.1602876285642357</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.204880738817228</v>
+        <v>0.2041136384194364</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>478104</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>460287</v>
+        <v>460615</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>496718</v>
+        <v>496080</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.808525500463144</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7783961473533758</v>
+        <v>0.7789496811252513</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8400044845095593</v>
+        <v>0.838925595324968</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>470</v>
@@ -5419,19 +5419,19 @@
         <v>544444</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>518484</v>
+        <v>515447</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>571790</v>
+        <v>573374</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6998620543776382</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6664908419405101</v>
+        <v>0.6625871670727933</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7350141673984457</v>
+        <v>0.7370498950376828</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>971</v>
@@ -5440,19 +5440,19 @@
         <v>1022548</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>989607</v>
+        <v>991180</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1056752</v>
+        <v>1055888</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7467894349164179</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7227314337811309</v>
+        <v>0.723880935373575</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7717689473154585</v>
+        <v>0.7711378992449791</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>17452</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12052</v>
+        <v>11902</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>24973</v>
+        <v>25047</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1068611602471839</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07379609205828236</v>
+        <v>0.0728770410250254</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1529143854259069</v>
+        <v>0.1533643214332691</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -5805,19 +5805,19 @@
         <v>28257</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21877</v>
+        <v>22438</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35357</v>
+        <v>35793</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1479210729808197</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1145213639937297</v>
+        <v>0.1174581988699697</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1850887332160727</v>
+        <v>0.1873673873484006</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>98</v>
@@ -5826,19 +5826,19 @@
         <v>45709</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>37754</v>
+        <v>36780</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>55811</v>
+        <v>55480</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1289968580980788</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1065460282736745</v>
+        <v>0.1037964996790322</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1575043564609636</v>
+        <v>0.1565728065361652</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>30666</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23363</v>
+        <v>22848</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39482</v>
+        <v>39243</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1877705047368516</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1430577542425191</v>
+        <v>0.139901464141485</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2417549663303602</v>
+        <v>0.2402928055558248</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>100</v>
@@ -5876,19 +5876,19 @@
         <v>43847</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>36726</v>
+        <v>36448</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>52475</v>
+        <v>52424</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2295307128886883</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1922539385439138</v>
+        <v>0.1907967540268582</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2746959158956275</v>
+        <v>0.2744291882984453</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>150</v>
@@ -5897,19 +5897,19 @@
         <v>74513</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>64231</v>
+        <v>63165</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>85983</v>
+        <v>85783</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2102837369455086</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1812682458225531</v>
+        <v>0.1782592596523069</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2426536991179315</v>
+        <v>0.2420889062878762</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>115197</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>105639</v>
+        <v>105413</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>124455</v>
+        <v>123823</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.7053683350159644</v>
+        <v>0.7053683350159645</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.6468483997130349</v>
+        <v>0.645459298305356</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7620597277108168</v>
+        <v>0.7581868689401138</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>279</v>
@@ -5947,19 +5947,19 @@
         <v>118925</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>108735</v>
+        <v>110452</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>127808</v>
+        <v>127548</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.622548214130492</v>
+        <v>0.6225482141304919</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5692055786717729</v>
+        <v>0.5781962471667353</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6690482644207192</v>
+        <v>0.6676904051156388</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>451</v>
@@ -5968,19 +5968,19 @@
         <v>234121</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>220050</v>
+        <v>221470</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>246195</v>
+        <v>248481</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.6607194049564127</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.621007102362709</v>
+        <v>0.6250163061064979</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6947920496690635</v>
+        <v>0.7012435746161716</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>11988</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7648</v>
+        <v>7910</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17227</v>
+        <v>17519</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.06727397229580323</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04291792996980399</v>
+        <v>0.04438858103590609</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0966712450746189</v>
+        <v>0.09830650726451896</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -6093,19 +6093,19 @@
         <v>29144</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>22923</v>
+        <v>22219</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>37682</v>
+        <v>36966</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1204098789700814</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09470905892011898</v>
+        <v>0.09180005918902083</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1556865874785667</v>
+        <v>0.1527265808850593</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>76</v>
@@ -6114,19 +6114,19 @@
         <v>41132</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32143</v>
+        <v>32934</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50924</v>
+        <v>51558</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09787766161237856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07648578710087296</v>
+        <v>0.07836796660002461</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1211785527499669</v>
+        <v>0.1226868360902858</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>24371</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17543</v>
+        <v>17667</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33659</v>
+        <v>34236</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1367584430075486</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.0984430429839796</v>
+        <v>0.09914056356628359</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1888799348293315</v>
+        <v>0.1921151863995109</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>106</v>
@@ -6164,19 +6164,19 @@
         <v>56514</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>47220</v>
+        <v>47123</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>66494</v>
+        <v>65830</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2334892216853909</v>
+        <v>0.2334892216853908</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1950922969462428</v>
+        <v>0.1946910938206914</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2747236127062569</v>
+        <v>0.2719795391416686</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>140</v>
@@ -6185,19 +6185,19 @@
         <v>80884</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>69278</v>
+        <v>69389</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>92665</v>
+        <v>93046</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1924706512541073</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1648523293585915</v>
+        <v>0.1651164014752471</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2205031456628884</v>
+        <v>0.2214089616679065</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>141845</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132596</v>
+        <v>132095</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>150040</v>
+        <v>149967</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7959675846966482</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7440670561898554</v>
+        <v>0.7412552200928013</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8419555152465027</v>
+        <v>0.8415463515263391</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>289</v>
@@ -6235,19 +6235,19 @@
         <v>156382</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>145343</v>
+        <v>145622</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>166418</v>
+        <v>167588</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.6461008993445277</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.6004931398240464</v>
+        <v>0.6016430432759997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6875656449352958</v>
+        <v>0.6923999064462163</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>487</v>
@@ -6256,19 +6256,19 @@
         <v>298226</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>284105</v>
+        <v>282956</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>312997</v>
+        <v>311875</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7096516871335142</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.6760493415096942</v>
+        <v>0.6733151420601471</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.7447995125949518</v>
+        <v>0.7421313374393096</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>7243</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3715</v>
+        <v>3642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13594</v>
+        <v>12757</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.04532996840423987</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02324979010395439</v>
+        <v>0.02279178049210501</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08507490319224509</v>
+        <v>0.07983880971762834</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>26</v>
@@ -6381,19 +6381,19 @@
         <v>17866</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>11360</v>
+        <v>12049</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>24682</v>
+        <v>25532</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1021473275822038</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.0649472860491979</v>
+        <v>0.06888966329552931</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1411117826356621</v>
+        <v>0.1459756457247709</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>35</v>
@@ -6402,19 +6402,19 @@
         <v>25110</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17993</v>
+        <v>17763</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>35118</v>
+        <v>34506</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.07502240904971735</v>
+        <v>0.07502240904971737</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.05375963473162812</v>
+        <v>0.05307334379763564</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1049270643428016</v>
+        <v>0.1030981001371277</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>12478</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7352</v>
+        <v>7623</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>19549</v>
+        <v>19488</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.07809042369724364</v>
+        <v>0.07809042369724366</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04601463722792684</v>
+        <v>0.04770529467343163</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1223456259800841</v>
+        <v>0.1219646727155047</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>65</v>
@@ -6452,19 +6452,19 @@
         <v>38284</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>30197</v>
+        <v>30556</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>46704</v>
+        <v>46844</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2188815527091956</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1726425761642922</v>
+        <v>0.174695778502455</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2670210433834301</v>
+        <v>0.2678208082678989</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>81</v>
@@ -6473,19 +6473,19 @@
         <v>50762</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>40562</v>
+        <v>41072</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>61433</v>
+        <v>62403</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.151667096426843</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1211920509949385</v>
+        <v>0.1227136965765782</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1835491733341195</v>
+        <v>0.1864478153830159</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>140064</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131582</v>
+        <v>131865</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>146363</v>
+        <v>146919</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8765796078985164</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8234925442286137</v>
+        <v>0.8252676600340634</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9160018835505441</v>
+        <v>0.9194768974994324</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>197</v>
@@ -6523,19 +6523,19 @@
         <v>118758</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>109392</v>
+        <v>109907</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127892</v>
+        <v>128591</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6789711197086005</v>
+        <v>0.6789711197086007</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6254222615533073</v>
+        <v>0.6283684517033798</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7311930676069112</v>
+        <v>0.7351870622071444</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>365</v>
@@ -6544,19 +6544,19 @@
         <v>258822</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>245384</v>
+        <v>245555</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>270586</v>
+        <v>270754</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7733104945234397</v>
+        <v>0.7733104945234396</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7331581964846053</v>
+        <v>0.7336694183248923</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.808458081100439</v>
+        <v>0.808960172684877</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>14742</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9735</v>
+        <v>9722</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21277</v>
+        <v>20922</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.06900937636976054</v>
+        <v>0.06900937636976055</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04556956251776376</v>
+        <v>0.04550847027231786</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09959994470170411</v>
+        <v>0.09793770982004971</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -6669,19 +6669,19 @@
         <v>32361</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23491</v>
+        <v>23469</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41946</v>
+        <v>41241</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1097734282123573</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07968415708810368</v>
+        <v>0.07961196012202862</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1422864106444219</v>
+        <v>0.139895538372279</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>76</v>
@@ -6690,19 +6690,19 @@
         <v>47103</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>37853</v>
+        <v>37686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>58862</v>
+        <v>59753</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09264546883643164</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.074451981636596</v>
+        <v>0.07412324352363035</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.115774261398749</v>
+        <v>0.1175255849293635</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>25319</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>18889</v>
+        <v>18582</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33970</v>
+        <v>33983</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1185227213345206</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08842047302637042</v>
+        <v>0.08698454809159413</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1590166349505047</v>
+        <v>0.159078968484324</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>112</v>
@@ -6740,19 +6740,19 @@
         <v>64693</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>53046</v>
+        <v>55054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>75799</v>
+        <v>76715</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2194483519941635</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1799392638462128</v>
+        <v>0.1867505933362947</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2571235517428777</v>
+        <v>0.2602295536112278</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>150</v>
@@ -6761,19 +6761,19 @@
         <v>90012</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>77391</v>
+        <v>77355</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>104312</v>
+        <v>105120</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1770421135612688</v>
+        <v>0.1770421135612687</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1522185036103169</v>
+        <v>0.1521473099362444</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2051675030858879</v>
+        <v>0.206757364091874</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>173563</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>164082</v>
+        <v>163701</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>182652</v>
+        <v>182118</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.812467902295719</v>
+        <v>0.8124679022957187</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7680847079363944</v>
+        <v>0.7662986812506386</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8550142372816746</v>
+        <v>0.8525134521870581</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>359</v>
@@ -6811,19 +6811,19 @@
         <v>197743</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>185456</v>
+        <v>184937</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>211339</v>
+        <v>210294</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6707782197934792</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.6290959054877961</v>
+        <v>0.6273377990932425</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7168974828141542</v>
+        <v>0.7133528273481312</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>622</v>
@@ -6832,19 +6832,19 @@
         <v>371307</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>355246</v>
+        <v>355454</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>386612</v>
+        <v>386821</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.7303124176022997</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.6987235730391235</v>
+        <v>0.699131779561906</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7604162699564563</v>
+        <v>0.7608264243745163</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>51426</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>40640</v>
+        <v>41442</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>63413</v>
+        <v>63445</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.07193117619225117</v>
+        <v>0.07193117619225116</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05684530273379992</v>
+        <v>0.05796612117755044</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.08869855538740282</v>
+        <v>0.08874317610559401</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>199</v>
@@ -6957,19 +6957,19 @@
         <v>107629</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>92640</v>
+        <v>93120</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>123193</v>
+        <v>122332</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1192197249627257</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1026174707402342</v>
+        <v>0.1031484182613378</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1364605057783817</v>
+        <v>0.135506281015206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>285</v>
@@ -6978,19 +6978,19 @@
         <v>159054</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>140871</v>
+        <v>141769</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>177688</v>
+        <v>180190</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.0983210113498859</v>
+        <v>0.09832101134988588</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0870807464385116</v>
+        <v>0.08763591324859904</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1098396580827175</v>
+        <v>0.1113861999908079</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>92834</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>78263</v>
+        <v>77922</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>109129</v>
+        <v>108829</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.1298502481464536</v>
+        <v>0.1298502481464535</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1094701808025342</v>
+        <v>0.1089923798055436</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1526429487144811</v>
+        <v>0.1522241598138541</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>383</v>
@@ -7028,19 +7028,19 @@
         <v>203338</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>184929</v>
+        <v>182907</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>220606</v>
+        <v>221352</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2252364327150632</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2048452064042889</v>
+        <v>0.2026057181177667</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2443646418117703</v>
+        <v>0.245190172992057</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>521</v>
@@ -7049,19 +7049,19 @@
         <v>296171</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>272409</v>
+        <v>270584</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>322343</v>
+        <v>319044</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1830814373567471</v>
+        <v>0.1830814373567472</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1683926997928995</v>
+        <v>0.1672646336207207</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1992594016729174</v>
+        <v>0.1972202408210191</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>570669</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>552622</v>
+        <v>553168</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>588253</v>
+        <v>588875</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7982185756612954</v>
+        <v>0.7982185756612953</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7729756634959208</v>
+        <v>0.7737388170301551</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8228136459815977</v>
+        <v>0.8236842432666375</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1124</v>
@@ -7099,19 +7099,19 @@
         <v>591809</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>572198</v>
+        <v>570207</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>615546</v>
+        <v>612568</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.6555438423222111</v>
+        <v>0.655543842322211</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6338213339788419</v>
+        <v>0.631615683358306</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6818376415597005</v>
+        <v>0.6785393477624397</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1925</v>
@@ -7120,19 +7120,19 @@
         <v>1162477</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1136149</v>
+        <v>1133938</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1191494</v>
+        <v>1189295</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.718597551293367</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7023222780998154</v>
+        <v>0.700955552544278</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7365342147867074</v>
+        <v>0.7351753896501299</v>
       </c>
     </row>
     <row r="23">
